--- a/doc/data/Lab3/TransmissionFrequency.xlsx
+++ b/doc/data/Lab3/TransmissionFrequency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Repositories\ece16-wi2020-daftcube\doc\data\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E0CA0F-D880-44FD-9D40-E8F8949F40C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94683E1A-2062-4DFA-B3B9-8F0BA31EFE27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{2AA7ABCA-2656-4141-881C-27279B806A1E}"/>
+    <workbookView xWindow="22932" yWindow="6864" windowWidth="23256" windowHeight="12576" xr2:uid="{2AA7ABCA-2656-4141-881C-27279B806A1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Hz</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Arduino Hz</t>
+  </si>
+  <si>
+    <t>Baud Rate</t>
   </si>
 </sst>
 </file>
@@ -188,7 +191,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual Hz (s^-1)</c:v>
+                  <c:v>115200</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -219,7 +222,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:f>Sheet1!$D$3:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -240,7 +243,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:f>Sheet1!$E$3:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -556,7 +559,385 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Baud Rate vs Frequency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>460800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$9:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>41.097323443407817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>507.27088265133665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>932.15072594769424</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>998.14486207453399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7B4-42DD-B651-87F358F7C7B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1964688144"/>
+        <c:axId val="1803444816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1964688144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1803444816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1803444816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1964688144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1112,20 +1493,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>173585</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>195097</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>56220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>42534</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>59285</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>69038</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>134076</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1145,6 +2042,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>427880</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88956</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41D6219-DE69-45D2-8E6D-2B315F423963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1450,15 +2383,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CFE3DB-A0F2-43AC-9FA2-D7084D834346}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1470,10 +2404,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>115200</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1483,13 +2417,11 @@
       <c r="B2">
         <v>100.003191919191</v>
       </c>
-      <c r="D2">
-        <f>A2</f>
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <f>1/(B2/1000)</f>
-        <v>9.9996808182689243</v>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1500,12 +2432,12 @@
         <v>20.003393939393899</v>
       </c>
       <c r="D3">
-        <f>A3</f>
-        <v>50</v>
+        <f>A2</f>
+        <v>10</v>
       </c>
       <c r="E3">
-        <f>1/(B3/1000)</f>
-        <v>49.991516591124032</v>
+        <f>1/(B2/1000)</f>
+        <v>9.9996808182689243</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1516,12 +2448,12 @@
         <v>10.003484848484799</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D3:D14" si="0">A4</f>
-        <v>100</v>
+        <f>A3</f>
+        <v>50</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E3:E14" si="1">1/(B4/1000)</f>
-        <v>99.965163655090379</v>
+        <f>1/(B3/1000)</f>
+        <v>49.991516591124032</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1532,16 +2464,95 @@
         <v>1.9713333333333301</v>
       </c>
       <c r="D5">
+        <f>A4</f>
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <f>1/(B4/1000)</f>
+        <v>99.965163655090379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6">
         <f>A5</f>
         <v>1000</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <f>1/(B5/1000)</f>
         <v>507.27088265133665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1000</v>
+      </c>
+      <c r="B9">
+        <v>24.3324848484848</v>
+      </c>
+      <c r="D9">
+        <v>9600</v>
+      </c>
+      <c r="E9">
+        <f>1/(B9/1000)</f>
+        <v>41.097323443407817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1000</v>
+      </c>
+      <c r="B10">
+        <v>1.9713333333333301</v>
+      </c>
+      <c r="D10">
+        <v>115200</v>
+      </c>
+      <c r="E10">
+        <f>1/(B10/1000)</f>
+        <v>507.27088265133665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>1.07278787878787</v>
+      </c>
+      <c r="D11">
+        <v>230400</v>
+      </c>
+      <c r="E11">
+        <f>1/(B11/1000)</f>
+        <v>932.15072594769424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>1.00185858585858</v>
+      </c>
+      <c r="D12">
+        <v>460800</v>
+      </c>
+      <c r="E12">
+        <f>1/(B12/1000)</f>
+        <v>998.14486207453399</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>